--- a/data-raw/FixedCOLWRLDElect.xlsx
+++ b/data-raw/FixedCOLWRLDElect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B03CE-FA9A-3447-B6BE-7194414E1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18198E2A-FE8F-2D4A-AB14-04BB3B059A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="500" windowWidth="36780" windowHeight="28300" activeTab="3" xr2:uid="{00C87A90-6B15-DF45-AB5F-3D787AE55E6B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00C87A90-6B15-DF45-AB5F-3D787AE55E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -465,9 +468,6 @@
     <t>Pumped storage plants</t>
   </si>
   <si>
-    <t>Non-specified (energy)</t>
-  </si>
-  <si>
     <t>Losses</t>
   </si>
   <si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>WRLD</t>
+  </si>
+  <si>
+    <t>Non-specified</t>
   </si>
 </sst>
 </file>
@@ -10934,7 +10937,7 @@
   <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20809,7 +20812,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20969,7 +20972,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -20984,7 +20987,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>35</v>
@@ -21019,7 +21022,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -21034,7 +21037,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>36</v>
@@ -21069,7 +21072,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -21084,7 +21087,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>104</v>
@@ -21119,7 +21122,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -21169,7 +21172,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -21219,7 +21222,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -21269,7 +21272,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -21319,7 +21322,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -21334,7 +21337,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>107</v>
@@ -21369,7 +21372,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -21384,7 +21387,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>108</v>
@@ -21419,7 +21422,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -21434,7 +21437,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>109</v>
@@ -21469,7 +21472,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -21484,7 +21487,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>110</v>
@@ -21519,7 +21522,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -21534,7 +21537,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>111</v>
@@ -21569,7 +21572,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -21584,7 +21587,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>112</v>
@@ -21619,7 +21622,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -21634,7 +21637,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>113</v>
@@ -21669,7 +21672,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -21684,7 +21687,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>114</v>
@@ -21719,7 +21722,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -21734,7 +21737,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>115</v>
@@ -21769,7 +21772,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -21784,7 +21787,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>116</v>
@@ -21819,7 +21822,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -21834,10 +21837,10 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>0</v>
@@ -21869,7 +21872,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -21884,10 +21887,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -21919,7 +21922,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -21931,13 +21934,13 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" t="s">
-        <v>143</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>0</v>
@@ -21969,7 +21972,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -21981,13 +21984,13 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
         <v>142</v>
       </c>
-      <c r="F24" t="s">
-        <v>143</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>0</v>
@@ -22019,7 +22022,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -22031,13 +22034,13 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
         <v>142</v>
       </c>
-      <c r="F25" t="s">
-        <v>143</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>0</v>
@@ -22069,7 +22072,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -22081,13 +22084,13 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
         <v>142</v>
       </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>0</v>
@@ -22119,7 +22122,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -22131,13 +22134,13 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
         <v>142</v>
       </c>
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>0</v>
@@ -22169,7 +22172,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -22181,13 +22184,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
         <v>142</v>
       </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>0</v>
@@ -22219,7 +22222,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -22231,13 +22234,13 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>0</v>
@@ -22269,7 +22272,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -22281,13 +22284,13 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s">
         <v>142</v>
       </c>
-      <c r="F30" t="s">
-        <v>143</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>0</v>
@@ -22319,7 +22322,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -22331,13 +22334,13 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
         <v>142</v>
       </c>
-      <c r="F31" t="s">
-        <v>143</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>0</v>
@@ -22369,7 +22372,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -22381,13 +22384,13 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
         <v>142</v>
       </c>
-      <c r="F32" t="s">
-        <v>143</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>0</v>
@@ -22419,7 +22422,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -22431,13 +22434,13 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
         <v>142</v>
       </c>
-      <c r="F33" t="s">
-        <v>143</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>0</v>
@@ -22469,7 +22472,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -22481,13 +22484,13 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
         <v>142</v>
       </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>0</v>
@@ -22519,7 +22522,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -22531,13 +22534,13 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
         <v>142</v>
       </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>0</v>
@@ -22569,7 +22572,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -22581,13 +22584,13 @@
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>0</v>
@@ -22619,7 +22622,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -22631,13 +22634,13 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>0</v>
@@ -22669,7 +22672,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -22681,13 +22684,13 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>0</v>
@@ -22719,7 +22722,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -22731,13 +22734,13 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>0</v>
@@ -22769,7 +22772,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -22781,13 +22784,13 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>0</v>
@@ -22819,7 +22822,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -22831,13 +22834,13 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>0</v>
@@ -22869,7 +22872,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -22881,13 +22884,13 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>0</v>

--- a/data-raw/FixedCOLWRLDElect.xlsx
+++ b/data-raw/FixedCOLWRLDElect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18198E2A-FE8F-2D4A-AB14-04BB3B059A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC66AC57-9E41-2D45-942B-09C811C7AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00C87A90-6B15-DF45-AB5F-3D787AE55E6B}"/>
   </bookViews>
@@ -136,18 +136,6 @@
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>Energy.type</t>
-  </si>
-  <si>
-    <t>Last.stage</t>
-  </si>
-  <si>
-    <t>Ledger.side</t>
-  </si>
-  <si>
-    <t>Flow.aggregation.point</t>
   </si>
   <si>
     <t>Flow</t>
@@ -557,6 +545,18 @@
   <si>
     <t>Non-specified</t>
   </si>
+  <si>
+    <t>EnergyType</t>
+  </si>
+  <si>
+    <t>LastStage</t>
+  </si>
+  <si>
+    <t>LedgerSide</t>
+  </si>
+  <si>
+    <t>FlowAggregationPoint</t>
+  </si>
 </sst>
 </file>
 
@@ -694,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,7 +734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -840,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,7 +982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,32 +1013,32 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
   <sheetData>
     <row r="1" spans="1:41" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1085,7 +1085,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="O1" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -1100,7 +1100,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
       <c r="AC1" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1971</v>
@@ -1156,13 +1156,13 @@
         <v>1980</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>1971</v>
@@ -1195,13 +1195,13 @@
         <v>1980</v>
       </c>
       <c r="AC3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF3">
         <v>1971</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>0</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1662,11 +1662,11 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>0</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="4" t="s">
         <v>0</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="s">
         <v>0</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>-853.19870000000003</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="s">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>-853.19870000000003</v>
       </c>
       <c r="AC11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>69627.601899999994</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>69627.601899999994</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>0</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>3978.0001000000002</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>3978.0001000000002</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>0</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>0</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>0</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>0</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>0</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>0</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AE19" s="1" t="s">
         <v>0</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>0</v>
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE20" s="1" t="s">
         <v>0</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>0</v>
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>0</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>0</v>
@@ -3765,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE23" s="1" t="s">
         <v>0</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE24" s="1" t="s">
         <v>0</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>0</v>
@@ -4023,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE25" s="1" t="s">
         <v>0</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>0</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AE27" s="1" t="s">
         <v>0</v>
@@ -4332,10 +4332,10 @@
     </row>
     <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -4371,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>0</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE29" s="1" t="s">
         <v>0</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>0</v>
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>0</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -4758,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>0</v>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -4887,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>0</v>
@@ -4926,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>0</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>0</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD33" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE33" s="5" t="s">
         <v>0</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>0</v>
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="5" t="s">
         <v>0</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>0</v>
@@ -5313,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE35" s="5" t="s">
         <v>0</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>0</v>
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>0</v>
@@ -5442,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>0</v>
@@ -5493,10 +5493,10 @@
     </row>
     <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AE37" s="5" t="s">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>0</v>
@@ -5661,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE38" s="5" t="s">
         <v>0</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>0</v>
@@ -5790,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE39" s="5" t="s">
         <v>0</v>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>0</v>
@@ -5919,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE40" s="5" t="s">
         <v>0</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>0</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE41" s="5" t="s">
         <v>0</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>0</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>0</v>
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE42" s="5" t="s">
         <v>0</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>0</v>
@@ -6306,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>0</v>
@@ -6345,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD43" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE43" s="5" t="s">
         <v>0</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>0</v>
@@ -6435,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>0</v>
@@ -6474,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD44" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE44" s="5" t="s">
         <v>0</v>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>0</v>
@@ -6564,10 +6564,10 @@
         <v>-3376.8006999999998</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>0</v>
@@ -6603,10 +6603,10 @@
         <v>-3376.8006999999998</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE45" s="5" t="s">
         <v>0</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
@@ -6693,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>0</v>
@@ -6732,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD46" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE46" s="5" t="s">
         <v>0</v>
@@ -6783,10 +6783,10 @@
     </row>
     <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>0</v>
@@ -6822,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>0</v>
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE47" s="5" t="s">
         <v>0</v>
@@ -6912,10 +6912,10 @@
     </row>
     <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>0</v>
@@ -6951,10 +6951,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE48" s="5" t="s">
         <v>0</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>0</v>
@@ -7080,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>0</v>
@@ -7119,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE49" s="5" t="s">
         <v>0</v>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -7209,10 +7209,10 @@
         <v>-11890.8009</v>
       </c>
       <c r="O50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q50" t="s">
         <v>0</v>
@@ -7248,10 +7248,10 @@
         <v>-11890.8009</v>
       </c>
       <c r="AC50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE50" t="s">
         <v>0</v>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="51" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>0</v>
@@ -7338,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>0</v>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>0</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>0</v>
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>0</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>0</v>
@@ -7596,10 +7596,10 @@
         <v>1494.001</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>0</v>
@@ -7635,10 +7635,10 @@
         <v>1494.001</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>0</v>
@@ -7686,10 +7686,10 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>4165.2003000000004</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>4165.2003000000004</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE54" s="6" t="s">
         <v>0</v>
@@ -7815,10 +7815,10 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>0</v>
@@ -7854,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>0</v>
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE55" s="6" t="s">
         <v>0</v>
@@ -7944,10 +7944,10 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>0</v>
@@ -7983,10 +7983,10 @@
         <v>3312.0016000000001</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>0</v>
@@ -8022,10 +8022,10 @@
         <v>3312.0016000000001</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE56" s="6" t="s">
         <v>0</v>
@@ -8073,10 +8073,10 @@
     </row>
     <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE57" s="6" t="s">
         <v>0</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>0</v>
@@ -8241,10 +8241,10 @@
         <v>1360.7979</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="6" t="s">
         <v>0</v>
@@ -8280,10 +8280,10 @@
         <v>1360.7979</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE58" s="6" t="s">
         <v>0</v>
@@ -8331,10 +8331,10 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>0</v>
@@ -8370,10 +8370,10 @@
         <v>3322.7993999999999</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>0</v>
@@ -8409,10 +8409,10 @@
         <v>3322.7993999999999</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE59" s="6" t="s">
         <v>0</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>0</v>
@@ -8499,10 +8499,10 @@
         <v>1494.001</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="6" t="s">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>1494.001</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE60" s="6" t="s">
         <v>0</v>
@@ -8589,10 +8589,10 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>158.39920000000001</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>0</v>
@@ -8667,10 +8667,10 @@
         <v>158.39920000000001</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE61" s="6" t="s">
         <v>0</v>
@@ -8718,10 +8718,10 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>0</v>
@@ -8757,10 +8757,10 @@
         <v>2789.9998000000001</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q62" s="6" t="s">
         <v>0</v>
@@ -8796,10 +8796,10 @@
         <v>2789.9998000000001</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AE62" s="6" t="s">
         <v>0</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>0</v>
@@ -8886,10 +8886,10 @@
         <v>86.398799999999994</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q63" s="6" t="s">
         <v>0</v>
@@ -8925,10 +8925,10 @@
         <v>86.398799999999994</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AE63" s="6" t="s">
         <v>0</v>
@@ -8976,88 +8976,88 @@
     </row>
     <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>0</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE64" s="6" t="s">
         <v>0</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="65" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>0</v>
@@ -9144,10 +9144,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>0</v>
@@ -9183,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE65" s="6" t="s">
         <v>0</v>
@@ -9234,10 +9234,10 @@
     </row>
     <row r="66" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>0</v>
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE66" s="6" t="s">
         <v>0</v>
@@ -9363,10 +9363,10 @@
     </row>
     <row r="67" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q67" s="6" t="s">
         <v>0</v>
@@ -9441,10 +9441,10 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE67" s="6" t="s">
         <v>0</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="68" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>0</v>
@@ -9531,10 +9531,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>0</v>
@@ -9570,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AE68" s="6" t="s">
         <v>0</v>
@@ -9621,88 +9621,88 @@
     </row>
     <row r="69" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE69" s="6" t="s">
         <v>0</v>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="70" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>0</v>
@@ -9789,10 +9789,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>0</v>
@@ -9828,10 +9828,10 @@
         <v>0</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE70" s="6" t="s">
         <v>0</v>
@@ -9879,10 +9879,10 @@
     </row>
     <row r="71" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q71" s="6" t="s">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE71" s="6" t="s">
         <v>0</v>
@@ -10008,10 +10008,10 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>24670.798500000001</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>0</v>
@@ -10086,10 +10086,10 @@
         <v>24670.798500000001</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE72" s="6" t="s">
         <v>0</v>
@@ -10137,10 +10137,10 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>0</v>
@@ -10176,10 +10176,10 @@
         <v>11001.599899999999</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q73" s="6" t="s">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>11001.599899999999</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE73" s="6" t="s">
         <v>0</v>
@@ -10266,10 +10266,10 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>0</v>
@@ -10305,10 +10305,10 @@
         <v>115.1998</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>0</v>
@@ -10344,10 +10344,10 @@
         <v>115.1998</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="6" t="s">
         <v>0</v>
@@ -10395,10 +10395,10 @@
     </row>
     <row r="75" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>0</v>
@@ -10473,10 +10473,10 @@
         <v>0</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE75" s="6" t="s">
         <v>0</v>
@@ -10524,10 +10524,10 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>0</v>
@@ -10563,10 +10563,10 @@
         <v>3513.6001999999999</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>0</v>
@@ -10602,10 +10602,10 @@
         <v>3513.6001999999999</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE76" s="6" t="s">
         <v>0</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C78" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" ref="D78:M78" si="5">SUM(D4:D50)</f>
@@ -10696,7 +10696,7 @@
         <v>57484.801700000011</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" ref="R78:AA78" si="6">SUM(R4:R50)</f>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C79" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" ref="D79:M79" si="7">SUM(D51:D76)</f>
@@ -10784,7 +10784,7 @@
         <v>57484.797400000003</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R79" s="8">
         <f t="shared" ref="R79:AA79" si="8">SUM(R51:R76)</f>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D81" s="8">
         <f>D78-D79</f>
@@ -10877,7 +10877,7 @@
         <v>4.300000007788185E-3</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R81" s="2">
         <f>R78-R79</f>
@@ -10947,7 +10947,7 @@
   <sheetData>
     <row r="1" spans="1:41" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10962,7 +10962,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="O1" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -10977,7 +10977,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
       <c r="AC1" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
@@ -10994,13 +10994,13 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>1971</v>
@@ -11033,13 +11033,13 @@
         <v>1980</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R2">
         <v>1971</v>
@@ -11072,13 +11072,13 @@
         <v>1980</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF2">
         <v>1971</v>
@@ -11113,10 +11113,10 @@
     </row>
     <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -11152,10 +11152,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>0</v>
@@ -11191,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>0</v>
@@ -11242,10 +11242,10 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -11281,10 +11281,10 @@
         <v>582570.00419999997</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>582570.00419999997</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>0</v>
@@ -11371,10 +11371,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -11410,10 +11410,10 @@
         <v>-554194.75009999995</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>0</v>
@@ -11449,10 +11449,10 @@
         <v>-554194.75009999995</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>0</v>
@@ -11500,88 +11500,88 @@
     </row>
     <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>0</v>
@@ -11629,88 +11629,88 @@
     </row>
     <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>0</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -11797,10 +11797,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>0</v>
@@ -11836,10 +11836,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>0</v>
@@ -11887,10 +11887,10 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
         <v>0</v>
@@ -11965,10 +11965,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
@@ -12016,10 +12016,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -12055,10 +12055,10 @@
         <v>-23208.487499999999</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
         <v>0</v>
@@ -12094,10 +12094,10 @@
         <v>-23143.688399999999</v>
       </c>
       <c r="AC10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s">
         <v>0</v>
@@ -12145,10 +12145,10 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -12184,10 +12184,10 @@
         <v>26950877.52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>0</v>
@@ -12223,10 +12223,10 @@
         <v>26950222.32</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>0</v>
@@ -12274,10 +12274,10 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -12313,10 +12313,10 @@
         <v>1766660.5830999999</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>0</v>
@@ -12352,10 +12352,10 @@
         <v>1765854.1845</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>0</v>
@@ -12403,10 +12403,10 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>960659.99979999999</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>0</v>
@@ -12481,10 +12481,10 @@
         <v>960659.99979999999</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>0</v>
@@ -12532,10 +12532,10 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -12571,10 +12571,10 @@
         <v>140148.00539999999</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>0</v>
@@ -12610,10 +12610,10 @@
         <v>140148.00539999999</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>0</v>
@@ -12661,10 +12661,10 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -12700,10 +12700,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>0</v>
@@ -12739,10 +12739,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>0</v>
@@ -12790,10 +12790,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -12829,10 +12829,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>0</v>
@@ -12868,10 +12868,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>0</v>
@@ -12919,10 +12919,10 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -12958,10 +12958,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>0</v>
@@ -12997,10 +12997,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>0</v>
@@ -13048,10 +13048,10 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -13087,10 +13087,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>0</v>
@@ -13126,10 +13126,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>0</v>
@@ -13177,10 +13177,10 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -13216,10 +13216,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>0</v>
@@ -13255,10 +13255,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE19" s="1" t="s">
         <v>0</v>
@@ -13306,10 +13306,10 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -13345,10 +13345,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>0</v>
@@ -13384,10 +13384,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE20" s="1" t="s">
         <v>0</v>
@@ -13435,10 +13435,10 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -13474,10 +13474,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>0</v>
@@ -13513,10 +13513,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>0</v>
@@ -13564,10 +13564,10 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -13603,10 +13603,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>0</v>
@@ -13642,10 +13642,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>0</v>
@@ -13693,10 +13693,10 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -13732,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>0</v>
@@ -13771,10 +13771,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE23" s="1" t="s">
         <v>0</v>
@@ -13822,10 +13822,10 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -13861,10 +13861,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>0</v>
@@ -13900,10 +13900,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE24" s="1" t="s">
         <v>0</v>
@@ -13951,10 +13951,10 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -13990,10 +13990,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>0</v>
@@ -14029,10 +14029,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE25" s="1" t="s">
         <v>0</v>
@@ -14080,10 +14080,10 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -14119,10 +14119,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>0</v>
@@ -14158,10 +14158,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>0</v>
@@ -14209,10 +14209,10 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -14248,10 +14248,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>0</v>
@@ -14287,10 +14287,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE27" s="1" t="s">
         <v>0</v>
@@ -14338,10 +14338,10 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -14377,10 +14377,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>0</v>
@@ -14416,10 +14416,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>0</v>
@@ -14467,10 +14467,10 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -14506,10 +14506,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>0</v>
@@ -14545,10 +14545,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AE29" s="1" t="s">
         <v>0</v>
@@ -14596,10 +14596,10 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -14635,10 +14635,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>0</v>
@@ -14674,10 +14674,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>0</v>
@@ -14725,10 +14725,10 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -14764,10 +14764,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>0</v>
@@ -14803,10 +14803,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>0</v>
@@ -14854,10 +14854,10 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>0</v>
@@ -14893,10 +14893,10 @@
         <v>-292885.16979999997</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>0</v>
@@ -14932,10 +14932,10 @@
         <v>-292885.16979999997</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE32" s="5" t="s">
         <v>0</v>
@@ -14983,10 +14983,10 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>0</v>
@@ -15022,10 +15022,10 @@
         <v>-227592.00289999999</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>0</v>
@@ -15061,10 +15061,10 @@
         <v>-227592.00289999999</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD33" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="5" t="s">
         <v>0</v>
@@ -15112,10 +15112,10 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>0</v>
@@ -15151,10 +15151,10 @@
         <v>0</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>0</v>
@@ -15190,10 +15190,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD34" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE34" s="5" t="s">
         <v>0</v>
@@ -15241,10 +15241,10 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>0</v>
@@ -15280,10 +15280,10 @@
         <v>-10630.8002</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>0</v>
@@ -15319,10 +15319,10 @@
         <v>-10630.8002</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE35" s="5" t="s">
         <v>0</v>
@@ -15370,10 +15370,10 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>0</v>
@@ -15409,10 +15409,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>0</v>
@@ -15448,10 +15448,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>0</v>
@@ -15499,10 +15499,10 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>0</v>
@@ -15538,10 +15538,10 @@
         <v>-8690.4192999999996</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>0</v>
@@ -15577,10 +15577,10 @@
         <v>-8690.4192999999996</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD37" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE37" s="5" t="s">
         <v>0</v>
@@ -15628,10 +15628,10 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>0</v>
@@ -15667,10 +15667,10 @@
         <v>-136.80369999999999</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>0</v>
@@ -15706,10 +15706,10 @@
         <v>-136.80369999999999</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE38" s="5" t="s">
         <v>0</v>
@@ -15757,10 +15757,10 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>0</v>
@@ -15796,10 +15796,10 @@
         <v>-18295.198100000001</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>0</v>
@@ -15835,10 +15835,10 @@
         <v>-18295.198100000001</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE39" s="5" t="s">
         <v>0</v>
@@ -15886,10 +15886,10 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>0</v>
@@ -15925,10 +15925,10 @@
         <v>-502088.408</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>0</v>
@@ -15964,10 +15964,10 @@
         <v>-502088.408</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE40" s="5" t="s">
         <v>0</v>
@@ -16015,10 +16015,10 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>0</v>
@@ -16054,10 +16054,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>0</v>
@@ -16093,10 +16093,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE41" s="5" t="s">
         <v>0</v>
@@ -16144,10 +16144,10 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>0</v>
@@ -16183,10 +16183,10 @@
         <v>-2984.4013</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>0</v>
@@ -16222,10 +16222,10 @@
         <v>-2984.4013</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE42" s="5" t="s">
         <v>0</v>
@@ -16273,10 +16273,10 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>0</v>
@@ -16312,10 +16312,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>0</v>
@@ -16351,10 +16351,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD43" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="5" t="s">
         <v>0</v>
@@ -16402,10 +16402,10 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>0</v>
@@ -16441,10 +16441,10 @@
         <v>-1608920.3642</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>0</v>
@@ -16480,10 +16480,10 @@
         <v>-1611177.5644</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD44" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE44" s="5" t="s">
         <v>0</v>
@@ -16531,10 +16531,10 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>-35510.406999999999</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>0</v>
@@ -16609,10 +16609,10 @@
         <v>-35510.406999999999</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE45" s="5" t="s">
         <v>0</v>
@@ -16660,10 +16660,10 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
@@ -16699,10 +16699,10 @@
         <v>-42177.601300000002</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>0</v>
@@ -16738,10 +16738,10 @@
         <v>-42177.601300000002</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD46" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE46" s="5" t="s">
         <v>0</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>0</v>
@@ -16828,10 +16828,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>0</v>
@@ -16867,10 +16867,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE47" s="5" t="s">
         <v>0</v>
@@ -16918,10 +16918,10 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>0</v>
@@ -16957,10 +16957,10 @@
         <v>-94179.604200000002</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>0</v>
@@ -16996,10 +16996,10 @@
         <v>-94179.604200000002</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE48" s="5" t="s">
         <v>0</v>
@@ -17047,10 +17047,10 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -17086,10 +17086,10 @@
         <v>-2457011.5219999999</v>
       </c>
       <c r="O49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q49" t="s">
         <v>0</v>
@@ -17125,10 +17125,10 @@
         <v>-2461817.5162</v>
       </c>
       <c r="AC49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE49" t="s">
         <v>0</v>
@@ -17176,10 +17176,10 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>0</v>
@@ -17215,10 +17215,10 @@
         <v>409309.2047</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>0</v>
@@ -17254,10 +17254,10 @@
         <v>409309.2047</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE50" s="6" t="s">
         <v>0</v>
@@ -17305,10 +17305,10 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>0</v>
@@ -17344,10 +17344,10 @@
         <v>162586.7831</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>0</v>
@@ -17383,10 +17383,10 @@
         <v>162586.7831</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>0</v>
@@ -17434,10 +17434,10 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>0</v>
@@ -17473,10 +17473,10 @@
         <v>1758178.8213</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>0</v>
@@ -17512,10 +17512,10 @@
         <v>1758178.8213</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>0</v>
@@ -17563,10 +17563,10 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>0</v>
@@ -17602,10 +17602,10 @@
         <v>2202660.0222999998</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>0</v>
@@ -17641,10 +17641,10 @@
         <v>2202645.6239</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>0</v>
@@ -17692,10 +17692,10 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>0</v>
@@ -17731,10 +17731,10 @@
         <v>1497592.7912000001</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>0</v>
@@ -17770,10 +17770,10 @@
         <v>1497592.7912000001</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE54" s="6" t="s">
         <v>0</v>
@@ -17821,10 +17821,10 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>0</v>
@@ -17860,10 +17860,10 @@
         <v>657043.18229999999</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>0</v>
@@ -17899,10 +17899,10 @@
         <v>657043.18229999999</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE55" s="6" t="s">
         <v>0</v>
@@ -17950,10 +17950,10 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>0</v>
@@ -17989,10 +17989,10 @@
         <v>290559.5992</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>0</v>
@@ -18028,10 +18028,10 @@
         <v>290559.5992</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE56" s="6" t="s">
         <v>0</v>
@@ -18079,10 +18079,10 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>0</v>
@@ -18118,10 +18118,10 @@
         <v>1044197.9976</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>0</v>
@@ -18157,10 +18157,10 @@
         <v>1044197.9976</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE57" s="6" t="s">
         <v>0</v>
@@ -18208,10 +18208,10 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>0</v>
@@ -18247,10 +18247,10 @@
         <v>573339.6091</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="6" t="s">
         <v>0</v>
@@ -18286,10 +18286,10 @@
         <v>573339.6091</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE58" s="6" t="s">
         <v>0</v>
@@ -18337,10 +18337,10 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>0</v>
@@ -18376,10 +18376,10 @@
         <v>877168.82290000003</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>0</v>
@@ -18415,10 +18415,10 @@
         <v>877168.82290000003</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE59" s="6" t="s">
         <v>0</v>
@@ -18466,10 +18466,10 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>0</v>
@@ -18505,10 +18505,10 @@
         <v>158029.196</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q60" s="6" t="s">
         <v>0</v>
@@ -18544,10 +18544,10 @@
         <v>158029.196</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE60" s="6" t="s">
         <v>0</v>
@@ -18595,10 +18595,10 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>0</v>
@@ -18634,10 +18634,10 @@
         <v>416988.00949999999</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>0</v>
@@ -18673,10 +18673,10 @@
         <v>416988.00949999999</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AE61" s="6" t="s">
         <v>0</v>
@@ -18724,10 +18724,10 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>0</v>
@@ -18763,10 +18763,10 @@
         <v>2426859.3105000001</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q62" s="6" t="s">
         <v>0</v>
@@ -18802,10 +18802,10 @@
         <v>2426693.71</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AE62" s="6" t="s">
         <v>0</v>
@@ -18853,10 +18853,10 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>0</v>
@@ -18892,10 +18892,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q63" s="6" t="s">
         <v>0</v>
@@ -18931,10 +18931,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE63" s="6" t="s">
         <v>0</v>
@@ -18982,10 +18982,10 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>0</v>
@@ -19021,10 +19021,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>0</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE64" s="6" t="s">
         <v>0</v>
@@ -19111,10 +19111,10 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>0</v>
@@ -19150,10 +19150,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>0</v>
@@ -19189,10 +19189,10 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE65" s="6" t="s">
         <v>0</v>
@@ -19240,10 +19240,10 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>0</v>
@@ -19279,10 +19279,10 @@
         <v>556383.60919999995</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>0</v>
@@ -19318,10 +19318,10 @@
         <v>556383.60919999995</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE66" s="6" t="s">
         <v>0</v>
@@ -19369,10 +19369,10 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>0</v>
@@ -19408,10 +19408,10 @@
         <v>6282.0002999999997</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q67" s="6" t="s">
         <v>0</v>
@@ -19447,10 +19447,10 @@
         <v>6282.0002999999997</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AE67" s="6" t="s">
         <v>0</v>
@@ -19498,10 +19498,10 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>0</v>
@@ -19537,10 +19537,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>0</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE68" s="6" t="s">
         <v>0</v>
@@ -19627,10 +19627,10 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>0</v>
@@ -19666,10 +19666,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q69" s="6" t="s">
         <v>0</v>
@@ -19705,10 +19705,10 @@
         <v>0</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE69" s="6" t="s">
         <v>0</v>
@@ -19756,10 +19756,10 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>0</v>
@@ -19795,10 +19795,10 @@
         <v>17755.197199999999</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>0</v>
@@ -19834,10 +19834,10 @@
         <v>17755.197199999999</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE70" s="6" t="s">
         <v>0</v>
@@ -19885,10 +19885,10 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>0</v>
@@ -19924,10 +19924,10 @@
         <v>6186855.5871000001</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q71" s="6" t="s">
         <v>0</v>
@@ -19963,10 +19963,10 @@
         <v>6186304.7926000003</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE71" s="6" t="s">
         <v>0</v>
@@ -20014,10 +20014,10 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>0</v>
@@ -20053,10 +20053,10 @@
         <v>4347338.4038000004</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>0</v>
@@ -20092,10 +20092,10 @@
         <v>4361961.6025</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE72" s="6" t="s">
         <v>0</v>
@@ -20143,10 +20143,10 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>0</v>
@@ -20182,10 +20182,10 @@
         <v>639388.74459999998</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q73" s="6" t="s">
         <v>0</v>
@@ -20221,10 +20221,10 @@
         <v>639464.34569999995</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE73" s="6" t="s">
         <v>0</v>
@@ -20272,10 +20272,10 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>0</v>
@@ -20311,10 +20311,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>0</v>
@@ -20350,10 +20350,10 @@
         <v>0</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE74" s="6" t="s">
         <v>0</v>
@@ -20401,10 +20401,10 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>0</v>
@@ -20440,10 +20440,10 @@
         <v>293893.2047</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>0</v>
@@ -20479,10 +20479,10 @@
         <v>271465.20380000002</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE75" s="6" t="s">
         <v>0</v>
@@ -20530,7 +20530,7 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C77" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" ref="D77:M77" si="22">SUM(D4:D49)</f>
@@ -20573,7 +20573,7 @@
         <v>24522410.172899995</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R77" s="8">
         <f t="shared" ref="R77:AA77" si="23">SUM(R4:R49)</f>
@@ -20618,7 +20618,7 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C78" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" ref="D78:M78" si="24">SUM(D50:D75)</f>
@@ -20661,7 +20661,7 @@
         <v>24522410.096600004</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" ref="R78:AA78" si="25">SUM(R50:R75)</f>
@@ -20710,7 +20710,7 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D80" s="8">
         <f>D77-D78</f>
@@ -20753,7 +20753,7 @@
         <v>7.6299991458654404E-2</v>
       </c>
       <c r="Q80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R80" s="8">
         <f>R77-R78</f>
@@ -20812,7 +20812,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20828,25 +20828,25 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
       <c r="J1">
         <v>1971</v>
@@ -20872,22 +20872,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1">
         <v>34196.400800000003</v>
@@ -20922,22 +20922,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -20946,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>2671.1993000000002</v>
@@ -20972,31 +20972,31 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4">
         <v>262987.18920000002</v>
@@ -21022,31 +21022,31 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" s="4">
         <v>-258458.3988</v>
@@ -21072,31 +21072,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>-17336.157200000001</v>
@@ -21122,22 +21122,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1">
         <v>17919219.890000001</v>
@@ -21172,22 +21172,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
@@ -21196,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
         <v>372117.7096</v>
@@ -21222,31 +21222,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
         <v>589604.39760000003</v>
@@ -21272,31 +21272,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
         <v>44848.804799999998</v>
@@ -21322,31 +21322,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="5">
         <v>-228600.01689999999</v>
@@ -21372,31 +21372,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" s="5">
         <v>-71521.237099999998</v>
@@ -21422,31 +21422,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" s="5">
         <v>-13932.0041</v>
@@ -21472,31 +21472,31 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J14" s="5">
         <v>-7124.3928999999998</v>
@@ -21522,31 +21522,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15" s="5">
         <v>-230.39959999999999</v>
@@ -21572,31 +21572,31 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J16" s="5">
         <v>-14846.4012</v>
@@ -21622,31 +21622,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J17" s="5">
         <v>-294213.58289999998</v>
@@ -21672,31 +21672,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" s="5">
         <v>-737.99890000000005</v>
@@ -21722,31 +21722,31 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J19" s="5">
         <v>-849436.86230000004</v>
@@ -21772,31 +21772,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J20" s="5">
         <v>-17481.594000000001</v>
@@ -21822,31 +21822,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21" s="5">
         <v>-87933.589399999997</v>
@@ -21872,31 +21872,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>-1538072.6492999999</v>
@@ -21922,31 +21922,31 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J23" s="6">
         <v>259595.99419999999</v>
@@ -21972,31 +21972,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24" s="6">
         <v>90532.813399999999</v>
@@ -22022,31 +22022,31 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6">
         <v>1193421.5828</v>
@@ -22072,31 +22072,31 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J26" s="6">
         <v>1587682.7960999999</v>
@@ -22122,31 +22122,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27" s="6">
         <v>996940.80729999999</v>
@@ -22172,31 +22172,31 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J28" s="6">
         <v>430297.19770000002</v>
@@ -22222,31 +22222,31 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6">
         <v>220564.80660000001</v>
@@ -22272,31 +22272,31 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J30" s="6">
         <v>677858.40280000004</v>
@@ -22322,31 +22322,31 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" s="6">
         <v>353685.6115</v>
@@ -22372,31 +22372,31 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J32" s="6">
         <v>611798.40670000005</v>
@@ -22422,31 +22422,31 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J33" s="6">
         <v>89708.390700000004</v>
@@ -22472,31 +22472,31 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J34" s="6">
         <v>312084.00079999998</v>
@@ -22522,31 +22522,31 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J35" s="6">
         <v>1729679.0392</v>
@@ -22572,31 +22572,31 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J36" s="6">
         <v>390952.81650000002</v>
@@ -22622,31 +22622,31 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J37" s="6">
         <v>5072.4003000000002</v>
@@ -22672,31 +22672,31 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J38" s="6">
         <v>10623.6031</v>
@@ -22722,31 +22722,31 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J39" s="6">
         <v>3587917.2097999998</v>
@@ -22772,31 +22772,31 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J40" s="6">
         <v>2310878.4441999998</v>
@@ -22822,31 +22822,31 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J41" s="6">
         <v>404492.37089999998</v>
@@ -22872,31 +22872,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6">
         <v>525066.04370000004</v>
